--- a/src/assets/stockmarket_sample_data.xlsx
+++ b/src/assets/stockmarket_sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VSWorkspace\smAngularBootstrapS\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06744F60-9F2A-4C72-B627-955D26CBF8E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED356FCB-E5C8-40D8-8753-9F6FFDCB05D1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -466,7 +466,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -483,7 +483,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -670,7 +670,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>100100</v>
+        <v>800800</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
